--- a/assets/utils/gameVarsData.xlsx
+++ b/assets/utils/gameVarsData.xlsx
@@ -10,15 +10,13 @@
     <sheet name="Constantes" sheetId="1" r:id="rId1"/>
     <sheet name="Construcciones" sheetId="2" r:id="rId2"/>
     <sheet name="Stands" sheetId="3" r:id="rId3"/>
-    <sheet name="Tipos" sheetId="4" r:id="rId4"/>
-    <sheet name="Finales" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>type</t>
   </si>
@@ -116,37 +114,58 @@
     <t>value</t>
   </si>
   <si>
-    <t>spriteName</t>
-  </si>
-  <si>
-    <t>baseSpeed</t>
-  </si>
-  <si>
-    <t>PREFERENCES</t>
-  </si>
-  <si>
-    <t>timesToEat</t>
-  </si>
-  <si>
-    <t>baseDamage</t>
-  </si>
-  <si>
-    <t>baseHeal</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>everything,lemonade,icecream,cake</t>
-  </si>
-  <si>
-    <t>gordo</t>
-  </si>
-  <si>
-    <t>fatcustomer</t>
+    <t>first_wave_time</t>
+  </si>
+  <si>
+    <t>others_wave_time</t>
+  </si>
+  <si>
+    <t>phase_2_start</t>
+  </si>
+  <si>
+    <t>phase_3_start</t>
+  </si>
+  <si>
+    <t>phase_4_start</t>
+  </si>
+  <si>
+    <t>tiempo en segundos que se demora en partir la primera ronda</t>
+  </si>
+  <si>
+    <t>tiempo en segundos que se demora en partir las otras rondas</t>
+  </si>
+  <si>
+    <t>numero de nivel en el cual empieza la segunda fase</t>
+  </si>
+  <si>
+    <t>numero de nivel en el cual empieza la tercera fase</t>
+  </si>
+  <si>
+    <t>numero de nivel en el cual empieza la cuarta fase</t>
+  </si>
+  <si>
+    <t>starting_money</t>
+  </si>
+  <si>
+    <t>starting_wheat</t>
+  </si>
+  <si>
+    <t>starting_milk</t>
+  </si>
+  <si>
+    <t>starting_lemon</t>
+  </si>
+  <si>
+    <t>cantidad inicial de trigo</t>
+  </si>
+  <si>
+    <t>cantidad inicial de leche</t>
+  </si>
+  <si>
+    <t>cantidad inicial de limones</t>
+  </si>
+  <si>
+    <t>cantidad inicial de dinero</t>
   </si>
 </sst>
 </file>
@@ -498,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,11 +548,105 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>1100</v>
+      </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -546,7 +659,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,102 +1119,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>